--- a/crawl/file/apple.xlsx
+++ b/crawl/file/apple.xlsx
@@ -866,6 +866,1831 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId30"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId31"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId32"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId33"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId34"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId35"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId36"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId37"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId38"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId39"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId40"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId41"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId42"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId43"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId44"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId45"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId46"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId47"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId48"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId49"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId50"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId51"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId52"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId53"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId54"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId55"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId56"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId57"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId58"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId59"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId60"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="61" name="Image 61" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId61"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="62" name="Image 62" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId62"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>63</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="63" name="Image 63" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId63"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>64</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="64" name="Image 64" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId64"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>65</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="65" name="Image 65" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId65"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>66</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="66" name="Image 66" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId66"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>67</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="67" name="Image 67" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId67"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="68" name="Image 68" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId68"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>69</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="69" name="Image 69" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId69"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>70</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="70" name="Image 70" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId70"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="71" name="Image 71" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId71"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>72</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="72" name="Image 72" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId72"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>73</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="73" name="Image 73" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId73"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="74" name="Image 74" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId74"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="75" name="Image 75" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId75"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="76" name="Image 76" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId76"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="77" name="Image 77" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId77"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="78" name="Image 78" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId78"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>79</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="79" name="Image 79" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId79"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>80</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="80" name="Image 80" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId80"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>81</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="81" name="Image 81" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId81"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="82" name="Image 82" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId82"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>83</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="83" name="Image 83" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId83"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>84</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="84" name="Image 84" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId84"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>85</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="85" name="Image 85" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId85"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>86</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="86" name="Image 86" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId86"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="87" name="Image 87" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId87"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="88" name="Image 88" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId88"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="89" name="Image 89" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId89"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="90" name="Image 90" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId90"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>91</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="91" name="Image 91" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId91"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>92</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="92" name="Image 92" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId92"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>93</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="93" name="Image 93" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId93"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>94</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="94" name="Image 94" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId94"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>95</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="95" name="Image 95" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId95"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>96</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="96" name="Image 96" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId96"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>97</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="97" name="Image 97" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId97"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="98" name="Image 98" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId98"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>99</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="99" name="Image 99" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId99"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>100</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="100" name="Image 100" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId100"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>101</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="101" name="Image 101" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId101"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>102</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="102" name="Image 102" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId102"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>103</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="285750" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="103" name="Image 103" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId103"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -1168,7 +2993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1273,7 +3098,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1,478,660원</t>
+          <t>1,478,000원</t>
         </is>
       </c>
     </row>
@@ -1288,7 +3113,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,777,410원</t>
+          <t>1,702,080원</t>
         </is>
       </c>
     </row>
@@ -1303,7 +3128,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1,495,280원</t>
+          <t>1,478,000원</t>
         </is>
       </c>
     </row>
@@ -1348,7 +3173,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2,670,840원</t>
+          <t>2,670,830원</t>
         </is>
       </c>
     </row>
@@ -1363,7 +3188,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3,110,830원</t>
+          <t>3,110,860원</t>
         </is>
       </c>
     </row>
@@ -1378,7 +3203,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2,870,190원</t>
+          <t>2,869,800원</t>
         </is>
       </c>
     </row>
@@ -1393,7 +3218,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1,478,570원</t>
+          <t>1,478,000원</t>
         </is>
       </c>
     </row>
@@ -1468,7 +3293,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3,000,860원</t>
+          <t>3,000,840원</t>
         </is>
       </c>
     </row>
@@ -1513,7 +3338,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1,394,220원</t>
+          <t>1,394,190원</t>
         </is>
       </c>
     </row>
@@ -1543,7 +3368,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1,729,800원</t>
+          <t>1,729,790원</t>
         </is>
       </c>
     </row>
@@ -1649,6 +3474,1101 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>1,303,660원</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북에어15 M2 8Core 10GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1,704,030원</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로14 M1 Pro 8Core 14GPU 실버</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,911,440원</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로16 M3 Max 16Core 40GPU 블랙</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5,359,890원</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로16 M3 Max 16Core 40GPU 실버</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5,414,790원</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로16 M1 Pro 10Core 16GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2,483,670원</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로14 M3 8Core 10GPU 실버</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2,154,820원</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로16 M3 Max 14Core 30GPU 실버</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4,714,700원</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북에어15 M3 8Core 10GPU 골드</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,777,440원</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로14 M3 Max 14Core 30GPU 블랙</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4,231,580원</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북에어13 M3 8Core 10GPU 골드</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1,749,220원</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>APPLE 2022 맥북프로13 M2 8Core 10GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1,303,660원</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로14 M2 Pro 12Core 19GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2,428,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 M1 8Core 8GPU 골드</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1,030,590원</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>APPLE 2022 맥북에어13 M2 8Core 10GPU 실버</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1,399,500원</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>APPLE 2022 맥북에어13 M2 8Core 10GPU 블루</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1,450,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로14 M2 Pro 12Core 19GPU 실버</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3,109,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>APPLE 2022 맥북에어13 M2 8Core 10GPU 골드</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1,496,650원</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로16 M2 Max 12Core 38GPU 실버</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5,239,260원</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로14 M1 Pro 10Core 16GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2,193,310원</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북에어15 M2 8Core 10GPU 골드</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1,704,030원</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북에어15 M2 8Core 10GPU 실버</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1,704,030원</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로16 M2 Pro 12Core 19GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>3,198,990원</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로14 M2 Max 12Core 30GPU 실버</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>3,849,200원</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북에어15 M2 8Core 10GPU 블루</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1,704,030원</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로16 M1 Pro 10Core 16GPU 실버</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2,997,340원</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>APPLE 2022 맥북에어13 M2 8Core 8GPU 골드</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1,278,800원</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북프로14 M3 Max 14Core 30GPU 실버</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4,231,580원</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 M1 8Core 7GPU 실버</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,162,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북에어13 M3 8Core 8GPU 해외구매</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1,553,010원</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로14 M2 Pro 10Core 16GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3,455,520원</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로16 M1 Max 10Core 32GPU 실버</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>5,757,510원</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로16 M2 Pro 12Core 19GPU 실버</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4,118,990원</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로16 M2 Max 12Core 38GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,461,620원</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>APPLE 2023 맥북프로14 M2 Pro 10Core 16GPU 실버</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3,300,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로14 M1 Max 10Core 32GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4,290,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 M1 8Core 8GPU 실버</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,761,070원</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북에어13 M3 8Core 10GPU 해외구매</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2,320,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 M1 8Core 8GPU 그레이</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1,903,510원</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로16 MVVJ2KH/A</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3,299,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 MWP42KH/A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2,498,290원</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>APPLE 맥북에어 MC965KH/A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>899,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>APPLE 2024 맥북에어15 M3 8Core 10GPU 해외구매</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3,015,600원</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로16 MVVK2KH/A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3,770,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로15 MV902KH/A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3,185,520원</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 MWP72KH/A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2,340,600원</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로13 MUHN2KH/A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1,826,890원</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>APPLE 2021 맥북프로14 M1 Max 10Core 32GPU 실버</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4,581,600원</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>APPLE 2017 맥북프로13 MPXT2KH/A</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1,769,930원</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>APPLE 2018 맥북프로13 MR9Q2KH/A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2,583,540원</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 M1 8Core 7GPU 골드</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1,192,250원</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 MVH22KH/A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1,850,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로15 MV922KH/A</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3,190,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로16 MVVM2KH/A</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3,770,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>APPLE 2015 맥북프로15 MJLQ2KH/A</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3,190,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 MWTL2KH/A</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1,560,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 MWP52KH/A</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,890,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>APPLE 2017 맥북프로13 MPXQ2KH/A</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1,568,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북에어 MVH52KH/A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1,850,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로16 MVVL2KH/A</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3,570,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>APPLE 2020 맥북프로13 MWP82KH/A</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2,269,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>APPLE 2018 맥북프로15 MR962KH/A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2,884,700원</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>APPLE 2015 맥북에어13 MMGF2KH/A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1,530,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북에어 MVFJ2KH/A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2,100,487원</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북에어 MVFK2KH/A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1,489,960원</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북에어 MVFM2KH/A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1,359,900원</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로13 MV9A2KH/A</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2,256,700원</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로13 MV962KH/A</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2,410,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>APPLE 2017 맥북프로15 MPTR2KH/A</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2,921,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>APPLE 2016 맥북프로13 MLH12KH/A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,106,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북프로13 MUHP2KH/A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2,094,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북에어 MVFL2KH/A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1,490,000원</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>APPLE 2019 맥북에어 MVFH2KH/A</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1,564,451원</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>APPLE 2017 맥북프로13 MPXV2KH/A</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2,165,000원</t>
         </is>
       </c>
     </row>
